--- a/notebook/PLAN/2021-09-OKR.xlsx
+++ b/notebook/PLAN/2021-09-OKR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13920"/>
+    <workbookView windowWidth="30048" windowHeight="13884"/>
   </bookViews>
   <sheets>
     <sheet name="OKR-9月" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>目标</t>
   </si>
@@ -186,11 +186,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -217,7 +217,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -225,9 +225,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,11 +254,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,26 +293,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,8 +308,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,36 +352,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -374,181 +374,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,71 +671,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -759,160 +694,225 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -946,6 +946,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,16 +957,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -991,54 +990,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1305,22 +1304,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.5714285714286" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.27678571428571" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5740740740741" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.27777777777778" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.4732142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.4722222222222" style="4" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.7232142857143" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.7222222222222" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1361,368 +1360,368 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="12">
         <v>44441</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="12">
         <v>44442</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="12">
         <v>44443</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="12">
         <v>44444</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="12">
         <v>44445</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="12">
         <v>44446</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="12">
         <v>44447</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="12">
         <v>44448</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="12">
         <v>44449</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="12">
         <v>44450</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="12">
         <v>44451</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="12">
         <v>44452</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="12">
         <v>44453</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="12">
         <v>44454</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="12">
         <v>44455</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="12">
         <v>44456</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="12">
         <v>44457</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="12">
         <v>44458</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="12">
         <v>44459</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="12">
         <v>44460</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="12">
         <v>44461</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="12">
         <v>44462</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="12">
         <v>44463</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="12">
         <v>44464</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="12">
         <v>44465</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="12">
         <v>44466</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A30" s="15"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="12">
         <v>44467</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="12">
         <v>44468</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="12">
         <v>44469</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" ht="15.8" hidden="1" customHeight="1" spans="1:6">
       <c r="A35" s="21"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" ht="15.8" customHeight="1" spans="1:6">
       <c r="A36" s="11" t="s">
@@ -1732,419 +1731,419 @@
         <v>44440</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A37" s="15"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="12">
         <v>44441</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A38" s="15"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="12">
         <v>44442</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A39" s="15"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="12">
         <v>44443</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A40" s="15"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="12">
         <v>44444</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A41" s="15"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="12">
         <v>44445</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A42" s="15"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="12">
         <v>44446</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A43" s="15"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="12">
         <v>44447</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A44" s="15"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="12">
         <v>44448</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
     </row>
     <row r="45" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A45" s="15"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="12">
         <v>44449</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A46" s="15"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="12">
         <v>44450</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A47" s="15"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="12">
         <v>44451</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A48" s="15"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="12">
         <v>44452</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A49" s="15"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="12">
         <v>44453</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A50" s="15"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="12">
         <v>44454</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
     </row>
     <row r="51" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A51" s="15"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="12">
         <v>44455</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
     </row>
     <row r="52" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A52" s="15"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="12">
         <v>44456</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
     </row>
     <row r="53" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A53" s="15"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="12">
         <v>44457</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
     </row>
     <row r="54" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A54" s="15"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="12">
         <v>44458</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
     </row>
     <row r="55" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A55" s="15"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="12">
         <v>44459</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
     </row>
     <row r="56" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A56" s="15"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="12">
         <v>44460</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
     </row>
     <row r="57" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A57" s="15"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="12">
         <v>44461</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
     </row>
     <row r="58" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A58" s="15"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="12">
         <v>44462</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
     </row>
     <row r="59" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A59" s="15"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="12">
         <v>44463</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
     </row>
     <row r="60" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A60" s="15"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="12">
         <v>44464</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
     </row>
     <row r="61" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A61" s="15"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="12">
         <v>44465</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
     </row>
     <row r="62" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A62" s="15"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="12">
         <v>44466</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
     </row>
     <row r="63" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A63" s="15"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="12">
         <v>44467</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A64" s="15"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="12">
         <v>44468</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
     </row>
     <row r="65" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A65" s="15"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="12">
         <v>44469</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
     </row>
     <row r="66" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A66" s="15"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
     </row>
     <row r="67" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A67" s="15"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="23"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="23"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="23"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="23"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="23"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="24"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="28"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/notebook/PLAN/2021-09-OKR.xlsx
+++ b/notebook/PLAN/2021-09-OKR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13884"/>
+    <workbookView windowWidth="28060" windowHeight="12140"/>
   </bookViews>
   <sheets>
     <sheet name="OKR-9月" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>目标</t>
   </si>
@@ -46,6 +46,12 @@
     <t>队列(queue)</t>
   </si>
   <si>
+    <t>实现链表的反转操作</t>
+  </si>
+  <si>
+    <t>链表中环的检测</t>
+  </si>
+  <si>
     <t>递归</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>二分查找(上)</t>
   </si>
   <si>
+    <t>回家</t>
+  </si>
+  <si>
     <t>二分查找(下)</t>
   </si>
   <si>
@@ -85,27 +94,6 @@
     <t>哈希算法(下)</t>
   </si>
   <si>
-    <t>二叉树基础(上)</t>
-  </si>
-  <si>
-    <t>二叉树基础(下)</t>
-  </si>
-  <si>
-    <t>红黑树(上)</t>
-  </si>
-  <si>
-    <t>红黑树(下)</t>
-  </si>
-  <si>
-    <t>递归树</t>
-  </si>
-  <si>
-    <t>堆和堆排序</t>
-  </si>
-  <si>
-    <t>堆的应用</t>
-  </si>
-  <si>
     <t>2、Java核心进阶</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
   </si>
   <si>
     <t>有哪些方法可以在运行时动态生成一个Java类？</t>
-  </si>
-  <si>
-    <t>谈谈JVM内存区域的划分，哪些区域可能发生OutOfMemoryError</t>
   </si>
 </sst>
 </file>
@@ -186,11 +171,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -210,22 +195,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,11 +215,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,8 +246,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,84 +325,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,19 +359,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,157 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,32 +655,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,26 +693,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,8 +703,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,155 +723,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -946,9 +931,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -957,7 +939,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,54 +981,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1304,22 +1295,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.5740740740741" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.27777777777778" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5714285714286" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.27678571428571" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.4722222222222" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.4732142857143" style="4" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.7222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.7232142857143" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1360,790 +1351,784 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="12">
         <v>44441</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="12">
         <v>44442</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="12">
         <v>44443</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="12">
         <v>44444</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="12">
         <v>44445</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="12">
         <v>44446</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="12">
         <v>44447</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="12">
         <v>44448</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A12" s="16"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="12">
         <v>44449</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12">
+      <c r="A13" s="15"/>
+      <c r="B13" s="21">
         <v>44450</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12">
+      <c r="A14" s="15"/>
+      <c r="B14" s="21">
         <v>44451</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="12">
         <v>44452</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="12">
         <v>44453</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="12">
         <v>44454</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="12">
         <v>44455</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="12">
         <v>44456</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="12">
         <v>44457</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A21" s="16"/>
-      <c r="B21" s="12">
+      <c r="A21" s="15"/>
+      <c r="B21" s="22">
         <v>44458</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12">
+      <c r="A22" s="15"/>
+      <c r="B22" s="22">
         <v>44459</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12">
+      <c r="A23" s="15"/>
+      <c r="B23" s="22">
         <v>44460</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A24" s="16"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="12">
         <v>44461</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A25" s="16"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="12">
         <v>44462</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="12">
         <v>44463</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="12">
+      <c r="A27" s="15"/>
+      <c r="B27" s="22">
         <v>44464</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="12">
+      <c r="A28" s="15"/>
+      <c r="B28" s="22">
         <v>44465</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="12">
         <v>44466</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A30" s="16"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="12">
         <v>44467</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A31" s="16"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="12">
         <v>44468</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="12">
         <v>44469</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" ht="15.8" hidden="1" customHeight="1" spans="1:6">
-      <c r="A35" s="21"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" ht="15.8" customHeight="1" spans="1:6">
       <c r="A36" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B36" s="12">
         <v>44440</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A37" s="16"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="12">
         <v>44441</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A38" s="16"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="12">
         <v>44442</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A39" s="16"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="12">
         <v>44443</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A40" s="16"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="12">
         <v>44444</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A41" s="16"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="12">
         <v>44445</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A42" s="16"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="12">
         <v>44446</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A43" s="16"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="12">
         <v>44447</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="C43" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A44" s="16"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="12">
         <v>44448</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="C44" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A45" s="16"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="12">
         <v>44449</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="C45" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A46" s="16"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="12">
         <v>44450</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="C46" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A47" s="16"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="12">
         <v>44451</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
+      <c r="C47" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A48" s="16"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="12">
         <v>44452</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
+      <c r="C48" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A49" s="16"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="12">
         <v>44453</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="C49" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A50" s="16"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="12">
         <v>44454</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
+      <c r="C50" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
     </row>
     <row r="51" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A51" s="16"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="12">
         <v>44455</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
+      <c r="C51" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
     </row>
     <row r="52" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A52" s="16"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="12">
         <v>44456</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
+      <c r="C52" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
     </row>
     <row r="53" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A53" s="16"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="12">
         <v>44457</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
+      <c r="C53" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
     </row>
     <row r="54" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A54" s="16"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="12">
         <v>44458</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
+      <c r="C54" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
     </row>
     <row r="55" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A55" s="16"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="12">
         <v>44459</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
+      <c r="C55" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
     </row>
     <row r="56" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A56" s="16"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="12">
         <v>44460</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
+      <c r="C56" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
     </row>
     <row r="57" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A57" s="16"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="12">
         <v>44461</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
+      <c r="C57" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
     </row>
     <row r="58" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A58" s="16"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="12">
         <v>44462</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="C58" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
     </row>
     <row r="59" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A59" s="16"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="12">
         <v>44463</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
+      <c r="C59" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
     </row>
     <row r="60" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A60" s="16"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="12">
         <v>44464</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
+      <c r="C60" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
     </row>
     <row r="61" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A61" s="16"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="12">
         <v>44465</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
+      <c r="C61" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
     </row>
     <row r="62" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A62" s="16"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="12">
         <v>44466</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
+      <c r="C62" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
     </row>
     <row r="63" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A63" s="16"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="12">
         <v>44467</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
+      <c r="C63" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
     </row>
     <row r="64" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A64" s="16"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="12">
         <v>44468</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
+      <c r="C64" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
     </row>
     <row r="65" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A65" s="16"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="12">
         <v>44469</v>
       </c>
-      <c r="C65" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
+      <c r="C65" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
     </row>
     <row r="66" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A66" s="16"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
     </row>
     <row r="67" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A67" s="16"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="22"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="22"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="22"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="22"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="22"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="23"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="27"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/notebook/PLAN/2021-09-OKR.xlsx
+++ b/notebook/PLAN/2021-09-OKR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13884"/>
+    <workbookView windowWidth="28060" windowHeight="12140"/>
   </bookViews>
   <sheets>
     <sheet name="OKR-9月" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>目标</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>强引用、软引用、弱引用、幻像引用有什么区别</t>
+  </si>
+  <si>
+    <t>未完成</t>
   </si>
   <si>
     <t>String,StringBuffer,StringBuilder的区别</t>
@@ -180,11 +183,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -204,9 +207,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,45 +251,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,42 +266,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,21 +290,67 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +371,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,55 +389,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,108 +552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,6 +676,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -697,21 +763,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -722,203 +773,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,129 +947,144 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1326,856 +1351,860 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.5740740740741" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.27777777777778" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.2777777777778" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.4722222222222" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.7222222222222" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="19.5714285714286" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.27678571428571" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.2767857142857" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.4732142857143" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.7232142857143" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="14">
         <v>44440</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" ht="15.8" customHeight="1" spans="1:6">
       <c r="A4" s="17"/>
-      <c r="B4" s="13">
+      <c r="B4" s="14">
         <v>44441</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" ht="15.8" customHeight="1" spans="1:6">
       <c r="A5" s="17"/>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>44442</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" ht="15.8" customHeight="1" spans="1:6">
       <c r="A6" s="17"/>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>44443</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" ht="15.8" customHeight="1" spans="1:6">
       <c r="A7" s="17"/>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>44444</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" ht="15.8" customHeight="1" spans="1:6">
       <c r="A8" s="17"/>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>44445</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" ht="15.8" customHeight="1" spans="1:6">
       <c r="A9" s="17"/>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>44446</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23">
         <v>44447</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="25">
         <v>80</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A11" s="17"/>
-      <c r="B11" s="13">
+    <row r="11" s="3" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27">
         <v>44448</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" ht="15.8" customHeight="1" spans="1:6">
       <c r="A12" s="17"/>
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <v>44449</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" ht="15.8" customHeight="1" spans="1:6">
       <c r="A13" s="17"/>
-      <c r="B13" s="27">
+      <c r="B13" s="31">
         <v>44450</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" ht="15.8" customHeight="1" spans="1:6">
       <c r="A14" s="17"/>
-      <c r="B14" s="27">
+      <c r="B14" s="31">
         <v>44451</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" ht="15.8" customHeight="1" spans="1:6">
       <c r="A15" s="17"/>
-      <c r="B15" s="13">
+      <c r="B15" s="14">
         <v>44452</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="19"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" ht="15.8" customHeight="1" spans="1:6">
       <c r="A16" s="17"/>
-      <c r="B16" s="13">
+      <c r="B16" s="14">
         <v>44453</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" ht="15.8" customHeight="1" spans="1:6">
       <c r="A17" s="17"/>
-      <c r="B17" s="13">
+      <c r="B17" s="14">
         <v>44454</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" ht="15.8" customHeight="1" spans="1:6">
       <c r="A18" s="17"/>
-      <c r="B18" s="13">
+      <c r="B18" s="14">
         <v>44455</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" ht="15.8" customHeight="1" spans="1:6">
       <c r="A19" s="17"/>
-      <c r="B19" s="13">
+      <c r="B19" s="14">
         <v>44456</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="19"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" ht="15.8" customHeight="1" spans="1:6">
       <c r="A20" s="17"/>
-      <c r="B20" s="13">
+      <c r="B20" s="14">
         <v>44457</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="19"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" ht="15.8" customHeight="1" spans="1:6">
       <c r="A21" s="17"/>
-      <c r="B21" s="28">
+      <c r="B21" s="32">
         <v>44458</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" ht="15.8" customHeight="1" spans="1:6">
       <c r="A22" s="17"/>
-      <c r="B22" s="28">
+      <c r="B22" s="32">
         <v>44459</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" ht="15.8" customHeight="1" spans="1:6">
       <c r="A23" s="17"/>
-      <c r="B23" s="28">
+      <c r="B23" s="32">
         <v>44460</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" ht="15.8" customHeight="1" spans="1:6">
       <c r="A24" s="17"/>
-      <c r="B24" s="13">
+      <c r="B24" s="14">
         <v>44461</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" ht="15.8" customHeight="1" spans="1:6">
       <c r="A25" s="17"/>
-      <c r="B25" s="13">
+      <c r="B25" s="14">
         <v>44462</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="26"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" ht="15.8" customHeight="1" spans="1:6">
       <c r="A26" s="17"/>
-      <c r="B26" s="13">
+      <c r="B26" s="14">
         <v>44463</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="26"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" ht="15.8" customHeight="1" spans="1:6">
       <c r="A27" s="17"/>
-      <c r="B27" s="28">
+      <c r="B27" s="32">
         <v>44464</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="26"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" ht="15.8" customHeight="1" spans="1:6">
       <c r="A28" s="17"/>
-      <c r="B28" s="28">
+      <c r="B28" s="32">
         <v>44465</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="26"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" ht="15.8" customHeight="1" spans="1:6">
       <c r="A29" s="17"/>
-      <c r="B29" s="13">
+      <c r="B29" s="14">
         <v>44466</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="19"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="26"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" ht="15.8" customHeight="1" spans="1:6">
       <c r="A30" s="17"/>
-      <c r="B30" s="13">
+      <c r="B30" s="14">
         <v>44467</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="26"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" ht="15.8" customHeight="1" spans="1:6">
       <c r="A31" s="17"/>
-      <c r="B31" s="13">
+      <c r="B31" s="14">
         <v>44468</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="26"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" ht="15.8" customHeight="1" spans="1:6">
       <c r="A32" s="17"/>
-      <c r="B32" s="13">
+      <c r="B32" s="14">
         <v>44469</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="26"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" ht="15.8" customHeight="1" spans="1:6">
       <c r="A33" s="17"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="26"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" ht="15.8" customHeight="1" spans="1:6">
       <c r="A34" s="17"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" ht="15.8" hidden="1" customHeight="1" spans="1:6">
-      <c r="A35" s="29"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="16"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="14">
         <v>44440</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" ht="15.8" customHeight="1" spans="1:6">
       <c r="A37" s="17"/>
-      <c r="B37" s="13">
+      <c r="B37" s="14">
         <v>44441</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" ht="15.8" customHeight="1" spans="1:6">
       <c r="A38" s="17"/>
-      <c r="B38" s="13">
+      <c r="B38" s="14">
         <v>44442</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" ht="15.8" customHeight="1" spans="1:6">
       <c r="A39" s="17"/>
-      <c r="B39" s="13">
+      <c r="B39" s="14">
         <v>44443</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" ht="15.8" customHeight="1" spans="1:6">
       <c r="A40" s="17"/>
-      <c r="B40" s="13">
+      <c r="B40" s="14">
         <v>44444</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" ht="15.8" customHeight="1" spans="1:6">
       <c r="A41" s="17"/>
-      <c r="B41" s="13">
+      <c r="B41" s="14">
         <v>44445</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" ht="15.8" customHeight="1" spans="1:6">
       <c r="A42" s="17"/>
-      <c r="B42" s="13">
+      <c r="B42" s="14">
         <v>44446</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A43" s="17"/>
-      <c r="B43" s="13">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" s="3" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A43" s="26"/>
+      <c r="B43" s="27">
         <v>44447</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="29">
         <v>0</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A44" s="17"/>
-      <c r="B44" s="13">
+    <row r="44" s="3" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A44" s="26"/>
+      <c r="B44" s="27">
         <v>44448</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="45" ht="15.8" customHeight="1" spans="1:6">
       <c r="A45" s="17"/>
-      <c r="B45" s="13">
+      <c r="B45" s="14">
         <v>44449</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>32</v>
+      <c r="C45" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="D45" s="19"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
     </row>
     <row r="46" ht="15.8" customHeight="1" spans="1:6">
       <c r="A46" s="17"/>
-      <c r="B46" s="13">
+      <c r="B46" s="14">
         <v>44450</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>33</v>
+      <c r="C46" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="D46" s="19"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" ht="15.8" customHeight="1" spans="1:6">
       <c r="A47" s="17"/>
-      <c r="B47" s="13">
+      <c r="B47" s="14">
         <v>44451</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>34</v>
+      <c r="C47" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D47" s="19"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
     </row>
     <row r="48" ht="15.8" customHeight="1" spans="1:6">
       <c r="A48" s="17"/>
-      <c r="B48" s="13">
+      <c r="B48" s="14">
         <v>44452</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>35</v>
+      <c r="C48" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="D48" s="19"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
     </row>
     <row r="49" ht="15.8" customHeight="1" spans="1:6">
       <c r="A49" s="17"/>
-      <c r="B49" s="13">
+      <c r="B49" s="14">
         <v>44453</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>36</v>
+      <c r="C49" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="D49" s="19"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="50" ht="15.8" customHeight="1" spans="1:6">
       <c r="A50" s="17"/>
-      <c r="B50" s="13">
+      <c r="B50" s="14">
         <v>44454</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>37</v>
+      <c r="C50" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="D50" s="19"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
     </row>
     <row r="51" ht="15.8" customHeight="1" spans="1:6">
       <c r="A51" s="17"/>
-      <c r="B51" s="13">
+      <c r="B51" s="14">
         <v>44455</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>38</v>
+      <c r="C51" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="D51" s="19"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
     </row>
     <row r="52" ht="15.8" customHeight="1" spans="1:6">
       <c r="A52" s="17"/>
-      <c r="B52" s="13">
+      <c r="B52" s="14">
         <v>44456</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>39</v>
+      <c r="C52" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="D52" s="19"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
     </row>
     <row r="53" ht="15.8" customHeight="1" spans="1:6">
       <c r="A53" s="17"/>
-      <c r="B53" s="13">
+      <c r="B53" s="14">
         <v>44457</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>40</v>
+      <c r="C53" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="D53" s="19"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
     </row>
     <row r="54" ht="15.8" customHeight="1" spans="1:6">
       <c r="A54" s="17"/>
-      <c r="B54" s="13">
+      <c r="B54" s="14">
         <v>44458</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>41</v>
+      <c r="C54" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="D54" s="19"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
     </row>
     <row r="55" ht="15.8" customHeight="1" spans="1:6">
       <c r="A55" s="17"/>
-      <c r="B55" s="13">
+      <c r="B55" s="14">
         <v>44459</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>42</v>
+      <c r="C55" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="D55" s="19"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
     </row>
     <row r="56" ht="15.8" customHeight="1" spans="1:6">
       <c r="A56" s="17"/>
-      <c r="B56" s="13">
+      <c r="B56" s="14">
         <v>44460</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>43</v>
+      <c r="C56" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="D56" s="19"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
     </row>
     <row r="57" ht="15.8" customHeight="1" spans="1:6">
       <c r="A57" s="17"/>
-      <c r="B57" s="13">
+      <c r="B57" s="14">
         <v>44461</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>44</v>
+      <c r="C57" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D57" s="19"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
     </row>
     <row r="58" ht="15.8" customHeight="1" spans="1:6">
       <c r="A58" s="17"/>
-      <c r="B58" s="13">
+      <c r="B58" s="14">
         <v>44462</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>45</v>
+      <c r="C58" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="D58" s="19"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
     </row>
     <row r="59" ht="15.8" customHeight="1" spans="1:6">
       <c r="A59" s="17"/>
-      <c r="B59" s="13">
+      <c r="B59" s="14">
         <v>44463</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>46</v>
+      <c r="C59" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="D59" s="19"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
     </row>
     <row r="60" ht="15.8" customHeight="1" spans="1:6">
       <c r="A60" s="17"/>
-      <c r="B60" s="13">
+      <c r="B60" s="14">
         <v>44464</v>
       </c>
-      <c r="C60" s="16" t="s">
-        <v>47</v>
+      <c r="C60" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="D60" s="19"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
     </row>
     <row r="61" ht="15.8" customHeight="1" spans="1:6">
       <c r="A61" s="17"/>
-      <c r="B61" s="13">
+      <c r="B61" s="14">
         <v>44465</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>48</v>
+      <c r="C61" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="D61" s="19"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
     </row>
     <row r="62" ht="15.8" customHeight="1" spans="1:6">
       <c r="A62" s="17"/>
-      <c r="B62" s="13">
+      <c r="B62" s="14">
         <v>44466</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>49</v>
+      <c r="C62" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="D62" s="19"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
     </row>
     <row r="63" ht="15.8" customHeight="1" spans="1:6">
       <c r="A63" s="17"/>
-      <c r="B63" s="13">
+      <c r="B63" s="14">
         <v>44467</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>50</v>
+      <c r="C63" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="D63" s="19"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
     </row>
     <row r="64" ht="15.8" customHeight="1" spans="1:6">
       <c r="A64" s="17"/>
-      <c r="B64" s="13">
+      <c r="B64" s="14">
         <v>44468</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>51</v>
+      <c r="C64" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="D64" s="19"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
     </row>
     <row r="65" ht="15.8" customHeight="1" spans="1:6">
       <c r="A65" s="17"/>
-      <c r="B65" s="13">
+      <c r="B65" s="14">
         <v>44469</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>52</v>
+      <c r="C65" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="D65" s="19"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
     </row>
     <row r="66" ht="15.8" customHeight="1" spans="1:6">
       <c r="A66" s="17"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="16"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
     </row>
     <row r="67" ht="15.8" customHeight="1" spans="1:6">
       <c r="A67" s="17"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="30"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="16"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="30"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="30"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="16"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="30"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="16"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="19"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="30"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="16"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="31"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="35"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/notebook/PLAN/2021-09-OKR.xlsx
+++ b/notebook/PLAN/2021-09-OKR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12140"/>
+    <workbookView windowWidth="28060" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="OKR-9月" sheetId="3" r:id="rId1"/>
@@ -189,7 +189,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +201,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -776,152 +783,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -992,12 +999,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1005,6 +1012,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,8 +1365,8 @@
   <sheetPr/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
@@ -1481,7 +1491,7 @@
       <c r="D10" s="25">
         <v>80</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="24" t="s">
@@ -1500,262 +1510,262 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A12" s="17"/>
-      <c r="B12" s="14">
+    <row r="12" s="3" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27">
         <v>44449</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" ht="15.8" customHeight="1" spans="1:6">
       <c r="A13" s="17"/>
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>44450</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="30"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" ht="15.8" customHeight="1" spans="1:6">
       <c r="A14" s="17"/>
-      <c r="B14" s="31">
+      <c r="B14" s="30">
         <v>44451</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="30"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" ht="15.8" customHeight="1" spans="1:6">
       <c r="A15" s="17"/>
       <c r="B15" s="14">
         <v>44452</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="30"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" ht="15.8" customHeight="1" spans="1:6">
       <c r="A16" s="17"/>
       <c r="B16" s="14">
         <v>44453</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="30"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" ht="15.8" customHeight="1" spans="1:6">
       <c r="A17" s="17"/>
       <c r="B17" s="14">
         <v>44454</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" ht="15.8" customHeight="1" spans="1:6">
       <c r="A18" s="17"/>
       <c r="B18" s="14">
         <v>44455</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" ht="15.8" customHeight="1" spans="1:6">
       <c r="A19" s="17"/>
       <c r="B19" s="14">
         <v>44456</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="31" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="30"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" ht="15.8" customHeight="1" spans="1:6">
       <c r="A20" s="17"/>
       <c r="B20" s="14">
         <v>44457</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="30"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" ht="15.8" customHeight="1" spans="1:6">
       <c r="A21" s="17"/>
       <c r="B21" s="32">
         <v>44458</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" ht="15.8" customHeight="1" spans="1:6">
       <c r="A22" s="17"/>
       <c r="B22" s="32">
         <v>44459</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" ht="15.8" customHeight="1" spans="1:6">
       <c r="A23" s="17"/>
       <c r="B23" s="32">
         <v>44460</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" ht="15.8" customHeight="1" spans="1:6">
       <c r="A24" s="17"/>
       <c r="B24" s="14">
         <v>44461</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" ht="15.8" customHeight="1" spans="1:6">
       <c r="A25" s="17"/>
       <c r="B25" s="14">
         <v>44462</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="30"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" ht="15.8" customHeight="1" spans="1:6">
       <c r="A26" s="17"/>
       <c r="B26" s="14">
         <v>44463</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="30"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" ht="15.8" customHeight="1" spans="1:6">
       <c r="A27" s="17"/>
       <c r="B27" s="32">
         <v>44464</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="30"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" ht="15.8" customHeight="1" spans="1:6">
       <c r="A28" s="17"/>
       <c r="B28" s="32">
         <v>44465</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="30"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" ht="15.8" customHeight="1" spans="1:6">
       <c r="A29" s="17"/>
       <c r="B29" s="14">
         <v>44466</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="30"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" ht="15.8" customHeight="1" spans="1:6">
       <c r="A30" s="17"/>
       <c r="B30" s="14">
         <v>44467</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="30"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" ht="15.8" customHeight="1" spans="1:6">
       <c r="A31" s="17"/>
       <c r="B31" s="14">
         <v>44468</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="30"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" ht="15.8" customHeight="1" spans="1:6">
       <c r="A32" s="17"/>
       <c r="B32" s="14">
         <v>44469</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="30"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" ht="15.8" customHeight="1" spans="1:6">
       <c r="A33" s="17"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="30"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="19"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
@@ -1763,7 +1773,7 @@
     <row r="34" ht="15.8" customHeight="1" spans="1:6">
       <c r="A34" s="17"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="30"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="19"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
@@ -1882,21 +1892,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A45" s="17"/>
-      <c r="B45" s="14">
+    <row r="45" s="3" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A45" s="26"/>
+      <c r="B45" s="27">
         <v>44449</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
     </row>
     <row r="46" ht="15.8" customHeight="1" spans="1:6">
       <c r="A46" s="17"/>
-      <c r="B46" s="14">
+      <c r="B46" s="32">
         <v>44450</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -1908,7 +1918,7 @@
     </row>
     <row r="47" ht="15.8" customHeight="1" spans="1:6">
       <c r="A47" s="17"/>
-      <c r="B47" s="14">
+      <c r="B47" s="32">
         <v>44451</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -1992,7 +2002,7 @@
     </row>
     <row r="54" ht="15.8" customHeight="1" spans="1:6">
       <c r="A54" s="17"/>
-      <c r="B54" s="14">
+      <c r="B54" s="32">
         <v>44458</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -2004,7 +2014,7 @@
     </row>
     <row r="55" ht="15.8" customHeight="1" spans="1:6">
       <c r="A55" s="17"/>
-      <c r="B55" s="14">
+      <c r="B55" s="32">
         <v>44459</v>
       </c>
       <c r="C55" s="21" t="s">
@@ -2016,7 +2026,7 @@
     </row>
     <row r="56" ht="15.8" customHeight="1" spans="1:6">
       <c r="A56" s="17"/>
-      <c r="B56" s="14">
+      <c r="B56" s="32">
         <v>44460</v>
       </c>
       <c r="C56" s="21" t="s">
@@ -2043,7 +2053,7 @@
       <c r="B58" s="14">
         <v>44462</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="35" t="s">
         <v>46</v>
       </c>
       <c r="D58" s="19"/>
@@ -2064,7 +2074,7 @@
     </row>
     <row r="60" ht="15.8" customHeight="1" spans="1:6">
       <c r="A60" s="17"/>
-      <c r="B60" s="14">
+      <c r="B60" s="32">
         <v>44464</v>
       </c>
       <c r="C60" s="21" t="s">
@@ -2076,7 +2086,7 @@
     </row>
     <row r="61" ht="15.8" customHeight="1" spans="1:6">
       <c r="A61" s="17"/>
-      <c r="B61" s="14">
+      <c r="B61" s="32">
         <v>44465</v>
       </c>
       <c r="C61" s="21" t="s">
@@ -2151,7 +2161,7 @@
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="36"/>
+      <c r="A68" s="37"/>
       <c r="B68" s="14"/>
       <c r="C68" s="21"/>
       <c r="D68" s="19"/>
@@ -2159,7 +2169,7 @@
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="36"/>
+      <c r="A69" s="37"/>
       <c r="B69" s="14"/>
       <c r="C69" s="21"/>
       <c r="D69" s="19"/>
@@ -2167,7 +2177,7 @@
       <c r="F69" s="21"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="36"/>
+      <c r="A70" s="37"/>
       <c r="B70" s="14"/>
       <c r="C70" s="21"/>
       <c r="D70" s="19"/>
@@ -2175,7 +2185,7 @@
       <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="36"/>
+      <c r="A71" s="37"/>
       <c r="B71" s="14"/>
       <c r="C71" s="21"/>
       <c r="D71" s="19"/>
@@ -2183,7 +2193,7 @@
       <c r="F71" s="21"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="36"/>
+      <c r="A72" s="37"/>
       <c r="B72" s="14"/>
       <c r="C72" s="21"/>
       <c r="D72" s="19"/>
@@ -2191,20 +2201,20 @@
       <c r="F72" s="21"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="37"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="41"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/notebook/PLAN/2021-09-OKR.xlsx
+++ b/notebook/PLAN/2021-09-OKR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12140"/>
+    <workbookView windowWidth="30048" windowHeight="13884"/>
   </bookViews>
   <sheets>
     <sheet name="OKR-9月" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>目标</t>
   </si>
@@ -37,84 +37,60 @@
     <t>1、数据结构与算法之美课程</t>
   </si>
   <si>
-    <t xml:space="preserve">链表 </t>
-  </si>
-  <si>
-    <t>链表下的课程听完；笔记未整理；</t>
-  </si>
-  <si>
-    <t>效率待提升；利用好时间；not a good beginning\</t>
-  </si>
-  <si>
-    <t>栈(stack)；链表笔记整理</t>
+    <t>链表</t>
+  </si>
+  <si>
+    <t>如何实现一个链表；链表反转；</t>
+  </si>
+  <si>
+    <t>栈的实现；栈实现浏览器前进后退；栈实现判断括号是否完整</t>
   </si>
   <si>
     <t>队列(queue)；</t>
   </si>
   <si>
-    <t>队列(queue)；栈的手动实现；栈的算法题</t>
-  </si>
-  <si>
-    <t>递归；链表手动实现；链表反转；链表中环的检测</t>
+    <t>队列的实现；补充的算法题</t>
+  </si>
+  <si>
+    <t>递归</t>
+  </si>
+  <si>
+    <t>递归课程题目</t>
   </si>
   <si>
     <t>排序（上）</t>
   </si>
   <si>
+    <t>回家</t>
+  </si>
+  <si>
+    <t>排序题目</t>
+  </si>
+  <si>
+    <t>排序（中）</t>
+  </si>
+  <si>
     <t>排序（下）</t>
   </si>
   <si>
     <t>线性排序</t>
   </si>
   <si>
-    <t>排序优化</t>
+    <t>线性排序题目</t>
   </si>
   <si>
     <t>二分查找(上)</t>
   </si>
   <si>
-    <t>回家</t>
-  </si>
-  <si>
-    <t>排序算法题</t>
-  </si>
-  <si>
-    <t>二分查找(下)；二分查找算法题</t>
-  </si>
-  <si>
-    <t>跳表</t>
-  </si>
-  <si>
-    <t>散列表(上)</t>
-  </si>
-  <si>
-    <t>散列表(中)</t>
-  </si>
-  <si>
-    <t>散列表(下)</t>
-  </si>
-  <si>
-    <t>哈希算法(上)</t>
+    <t>二分查找题目</t>
   </si>
   <si>
     <t>2、Java核心进阶</t>
   </si>
   <si>
-    <t>final、finally、finalize有什么不同</t>
-  </si>
-  <si>
-    <t>未完成；</t>
-  </si>
-  <si>
-    <t>匀出时间去整理Kafka笔记了；</t>
-  </si>
-  <si>
     <t>强引用、软引用、弱引用、幻像引用有什么区别</t>
   </si>
   <si>
-    <t>未完成</t>
-  </si>
-  <si>
     <t>String,StringBuffer,StringBuilder的区别</t>
   </si>
   <si>
@@ -158,24 +134,6 @@
   </si>
   <si>
     <t>什么情况下Java程序会产生死锁？如何定位、修复？</t>
-  </si>
-  <si>
-    <t>Java并发包提供了哪些并发工具类</t>
-  </si>
-  <si>
-    <t>并发包中的ConcurrentLinkedQueue和LinkedBlockingQueue有什么区别？</t>
-  </si>
-  <si>
-    <t>Java并发类库提供的线程池有哪几种？ 分别有什么特点？</t>
-  </si>
-  <si>
-    <t>AtomicInteger底层实现原理是什么？如何在自己的产品代码中应用CAS操作？</t>
-  </si>
-  <si>
-    <t>请介绍类加载过程，什么是双亲委派模型？</t>
-  </si>
-  <si>
-    <t>有哪些方法可以在运行时动态生成一个Java类？</t>
   </si>
 </sst>
 </file>
@@ -186,13 +144,19 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -207,13 +171,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -222,9 +179,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,6 +215,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -244,10 +237,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,21 +265,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,30 +284,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -337,20 +308,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,18 +329,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,175 +341,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,29 +628,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,36 +654,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,6 +675,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -776,315 +728,314 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1351,868 +1302,832 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.5714285714286" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.27678571428571" style="5" customWidth="1"/>
-    <col min="3" max="3" width="31.2767857142857" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.4732142857143" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.7232142857143" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="19.5740740740741" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.27777777777778" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.3425925925926" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.4722222222222" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.7222222222222" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>44440</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" ht="15.8" customHeight="1" spans="1:6">
       <c r="A4" s="17"/>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>44441</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" ht="15.8" customHeight="1" spans="1:6">
       <c r="A5" s="17"/>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>44442</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" ht="15.8" customHeight="1" spans="1:6">
       <c r="A6" s="17"/>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>44443</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" ht="15.8" customHeight="1" spans="1:6">
       <c r="A7" s="17"/>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>44444</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" ht="15.8" customHeight="1" spans="1:6">
       <c r="A8" s="17"/>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>44445</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" ht="15.8" customHeight="1" spans="1:6">
       <c r="A9" s="17"/>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>44446</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22">
         <v>44447</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="25">
-        <v>80</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22">
         <v>44448</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" ht="15.8" customHeight="1" spans="1:6">
       <c r="A12" s="17"/>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>44449</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>11</v>
-      </c>
+      <c r="C12" s="25"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" ht="15.8" customHeight="1" spans="1:6">
       <c r="A13" s="17"/>
-      <c r="B13" s="31">
+      <c r="B13" s="26">
         <v>44450</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>12</v>
+      <c r="C13" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" ht="15.8" customHeight="1" spans="1:6">
       <c r="A14" s="17"/>
-      <c r="B14" s="31">
+      <c r="B14" s="26">
         <v>44451</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>13</v>
+      <c r="C14" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" ht="15.8" customHeight="1" spans="1:6">
       <c r="A15" s="17"/>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>44452</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>14</v>
+      <c r="C15" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="D15" s="19"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="30"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" ht="15.8" customHeight="1" spans="1:6">
       <c r="A16" s="17"/>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>44453</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>15</v>
+      <c r="C16" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" ht="15.8" customHeight="1" spans="1:6">
       <c r="A17" s="17"/>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>44454</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>15</v>
+      <c r="C17" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="30"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" ht="15.8" customHeight="1" spans="1:6">
       <c r="A18" s="17"/>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>44455</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>16</v>
+      <c r="C18" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" ht="15.8" customHeight="1" spans="1:6">
       <c r="A19" s="17"/>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>44456</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>17</v>
+      <c r="C19" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="D19" s="19"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="30"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" ht="15.8" customHeight="1" spans="1:6">
       <c r="A20" s="17"/>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>44457</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>18</v>
+      <c r="C20" s="25" t="s">
+        <v>14</v>
       </c>
       <c r="D20" s="19"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" ht="15.8" customHeight="1" spans="1:6">
       <c r="A21" s="17"/>
-      <c r="B21" s="32">
+      <c r="B21" s="27">
         <v>44458</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>19</v>
+      <c r="C21" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" ht="15.8" customHeight="1" spans="1:6">
       <c r="A22" s="17"/>
-      <c r="B22" s="32">
+      <c r="B22" s="27">
         <v>44459</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>19</v>
-      </c>
+      <c r="C22" s="29"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" ht="15.8" customHeight="1" spans="1:6">
       <c r="A23" s="17"/>
-      <c r="B23" s="32">
+      <c r="B23" s="27">
         <v>44460</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>19</v>
-      </c>
+      <c r="C23" s="30"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" ht="15.8" customHeight="1" spans="1:6">
       <c r="A24" s="17"/>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>44461</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>20</v>
+      <c r="C24" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" ht="15.8" customHeight="1" spans="1:6">
       <c r="A25" s="17"/>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>44462</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>20</v>
+      <c r="C25" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="30"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" ht="15.8" customHeight="1" spans="1:6">
       <c r="A26" s="17"/>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>44463</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>20</v>
+      <c r="C26" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="30"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" ht="15.8" customHeight="1" spans="1:6">
       <c r="A27" s="17"/>
-      <c r="B27" s="32">
+      <c r="B27" s="27">
         <v>44464</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>21</v>
+      <c r="C27" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="30"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" ht="15.8" customHeight="1" spans="1:6">
       <c r="A28" s="17"/>
-      <c r="B28" s="32">
+      <c r="B28" s="27">
         <v>44465</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>22</v>
+      <c r="C28" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="30"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" ht="15.8" customHeight="1" spans="1:6">
       <c r="A29" s="17"/>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>44466</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>23</v>
+      <c r="C29" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="D29" s="19"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" ht="15.8" customHeight="1" spans="1:6">
       <c r="A30" s="17"/>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>44467</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>24</v>
+      <c r="C30" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="30"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" ht="15.8" customHeight="1" spans="1:6">
       <c r="A31" s="17"/>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>44468</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>25</v>
+      <c r="C31" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="30"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" ht="15.8" customHeight="1" spans="1:6">
       <c r="A32" s="17"/>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>44469</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>26</v>
+      <c r="C32" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="30"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" ht="15.8" customHeight="1" spans="1:6">
       <c r="A33" s="17"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" ht="15.8" customHeight="1" spans="1:6">
       <c r="A34" s="17"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" ht="15.8" hidden="1" customHeight="1" spans="1:6">
-      <c r="A35" s="33"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A36" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="14">
+      <c r="A36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="13">
         <v>44440</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" ht="15.8" customHeight="1" spans="1:6">
       <c r="A37" s="17"/>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>44441</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" ht="15.8" customHeight="1" spans="1:6">
       <c r="A38" s="17"/>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>44442</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" ht="15.8" customHeight="1" spans="1:6">
       <c r="A39" s="17"/>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <v>44443</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" ht="15.8" customHeight="1" spans="1:6">
       <c r="A40" s="17"/>
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <v>44444</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" ht="15.8" customHeight="1" spans="1:6">
       <c r="A41" s="17"/>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>44445</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" ht="15.8" customHeight="1" spans="1:6">
       <c r="A42" s="17"/>
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <v>44446</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" s="3" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27">
+      <c r="A43" s="17"/>
+      <c r="B43" s="22">
         <v>44447</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="29">
-        <v>0</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>30</v>
-      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" s="3" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27">
+      <c r="A44" s="17"/>
+      <c r="B44" s="22">
         <v>44448</v>
       </c>
-      <c r="C44" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" ht="15.8" customHeight="1" spans="1:6">
       <c r="A45" s="17"/>
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <v>44449</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>33</v>
-      </c>
+      <c r="C45" s="16"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" ht="15.8" customHeight="1" spans="1:6">
       <c r="A46" s="17"/>
-      <c r="B46" s="14">
+      <c r="B46" s="26">
         <v>44450</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="C46" s="16"/>
       <c r="D46" s="19"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" ht="15.8" customHeight="1" spans="1:6">
       <c r="A47" s="17"/>
-      <c r="B47" s="14">
+      <c r="B47" s="26">
         <v>44451</v>
       </c>
-      <c r="C47" s="21" t="s">
-        <v>35</v>
+      <c r="C47" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="D47" s="19"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" ht="15.8" customHeight="1" spans="1:6">
       <c r="A48" s="17"/>
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <v>44452</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>36</v>
+      <c r="C48" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="D48" s="19"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" ht="15.8" customHeight="1" spans="1:6">
       <c r="A49" s="17"/>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>44453</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>37</v>
+      <c r="C49" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="D49" s="19"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" ht="15.8" customHeight="1" spans="1:6">
       <c r="A50" s="17"/>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>44454</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>38</v>
+      <c r="C50" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="D50" s="19"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" ht="15.8" customHeight="1" spans="1:6">
       <c r="A51" s="17"/>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>44455</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>39</v>
+      <c r="C51" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D51" s="19"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" ht="15.8" customHeight="1" spans="1:6">
       <c r="A52" s="17"/>
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>44456</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>40</v>
+      <c r="C52" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="D52" s="19"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
     </row>
     <row r="53" ht="15.8" customHeight="1" spans="1:6">
       <c r="A53" s="17"/>
-      <c r="B53" s="14">
+      <c r="B53" s="13">
         <v>44457</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>41</v>
+      <c r="C53" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="D53" s="19"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
     </row>
     <row r="54" ht="15.8" customHeight="1" spans="1:6">
       <c r="A54" s="17"/>
-      <c r="B54" s="14">
+      <c r="B54" s="27">
         <v>44458</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>42</v>
+      <c r="C54" s="32" t="s">
+        <v>15</v>
       </c>
       <c r="D54" s="19"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
     </row>
     <row r="55" ht="15.8" customHeight="1" spans="1:6">
       <c r="A55" s="17"/>
-      <c r="B55" s="14">
+      <c r="B55" s="27">
         <v>44459</v>
       </c>
-      <c r="C55" s="21" t="s">
-        <v>43</v>
-      </c>
+      <c r="C55" s="33"/>
       <c r="D55" s="19"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
     </row>
     <row r="56" ht="15.8" customHeight="1" spans="1:6">
       <c r="A56" s="17"/>
-      <c r="B56" s="14">
+      <c r="B56" s="27">
         <v>44460</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="C56" s="34"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
     </row>
     <row r="57" ht="15.8" customHeight="1" spans="1:6">
       <c r="A57" s="17"/>
-      <c r="B57" s="14">
+      <c r="B57" s="13">
         <v>44461</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>45</v>
+      <c r="C57" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="D57" s="19"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
     </row>
     <row r="58" ht="15.8" customHeight="1" spans="1:6">
       <c r="A58" s="17"/>
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <v>44462</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>46</v>
+      <c r="C58" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="D58" s="19"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
     </row>
     <row r="59" ht="15.8" customHeight="1" spans="1:6">
       <c r="A59" s="17"/>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>44463</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>47</v>
+      <c r="C59" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="D59" s="19"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
     </row>
     <row r="60" ht="15.8" customHeight="1" spans="1:6">
       <c r="A60" s="17"/>
-      <c r="B60" s="14">
+      <c r="B60" s="27">
         <v>44464</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>48</v>
+      <c r="C60" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="D60" s="19"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
     </row>
     <row r="61" ht="15.8" customHeight="1" spans="1:6">
       <c r="A61" s="17"/>
-      <c r="B61" s="14">
+      <c r="B61" s="27">
         <v>44465</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>49</v>
+      <c r="C61" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="D61" s="19"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
     </row>
     <row r="62" ht="15.8" customHeight="1" spans="1:6">
       <c r="A62" s="17"/>
-      <c r="B62" s="14">
+      <c r="B62" s="13">
         <v>44466</v>
       </c>
-      <c r="C62" s="21" t="s">
-        <v>50</v>
+      <c r="C62" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D62" s="19"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
     </row>
     <row r="63" ht="15.8" customHeight="1" spans="1:6">
       <c r="A63" s="17"/>
-      <c r="B63" s="14">
+      <c r="B63" s="13">
         <v>44467</v>
       </c>
-      <c r="C63" s="21" t="s">
-        <v>51</v>
+      <c r="C63" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D63" s="19"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" ht="15.8" customHeight="1" spans="1:6">
       <c r="A64" s="17"/>
-      <c r="B64" s="14">
+      <c r="B64" s="13">
         <v>44468</v>
       </c>
-      <c r="C64" s="21" t="s">
-        <v>52</v>
+      <c r="C64" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="D64" s="19"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" ht="15.8" customHeight="1" spans="1:6">
       <c r="A65" s="17"/>
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <v>44469</v>
       </c>
-      <c r="C65" s="21" t="s">
-        <v>53</v>
+      <c r="C65" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="D65" s="19"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" ht="15.8" customHeight="1" spans="1:6">
       <c r="A66" s="17"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="21"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
     </row>
     <row r="67" ht="15.8" customHeight="1" spans="1:6">
       <c r="A67" s="17"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="21"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="36"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="21"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="36"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="21"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="36"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="21"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="36"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="21"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="19"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="36"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="21"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="37"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="41"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A35"/>
     <mergeCell ref="A36:A65"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C54:C56"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>

--- a/notebook/PLAN/2021-09-OKR.xlsx
+++ b/notebook/PLAN/2021-09-OKR.xlsx
@@ -143,9 +143,9 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -177,9 +177,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,50 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -245,26 +261,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,8 +277,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,7 +294,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,16 +307,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,175 +341,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,36 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -669,24 +639,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,8 +661,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,16 +701,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,13 +746,13 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,119 +761,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -947,15 +947,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1306,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1912,7 +1903,7 @@
       <c r="B54" s="27">
         <v>44458</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="19"/>
@@ -1924,7 +1915,7 @@
       <c r="B55" s="27">
         <v>44459</v>
       </c>
-      <c r="C55" s="33"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="19"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
@@ -1934,7 +1925,7 @@
       <c r="B56" s="27">
         <v>44460</v>
       </c>
-      <c r="C56" s="34"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="19"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
@@ -2064,7 +2055,7 @@
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="35"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="13"/>
       <c r="C68" s="16"/>
       <c r="D68" s="19"/>
@@ -2072,7 +2063,7 @@
       <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="35"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="13"/>
       <c r="C69" s="16"/>
       <c r="D69" s="19"/>
@@ -2080,7 +2071,7 @@
       <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="35"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="13"/>
       <c r="C70" s="16"/>
       <c r="D70" s="19"/>
@@ -2088,7 +2079,7 @@
       <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="35"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="13"/>
       <c r="C71" s="16"/>
       <c r="D71" s="19"/>
@@ -2096,7 +2087,7 @@
       <c r="F71" s="16"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="35"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="13"/>
       <c r="C72" s="16"/>
       <c r="D72" s="19"/>
@@ -2104,20 +2095,20 @@
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="36"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="40"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/notebook/PLAN/2021-09-OKR.xlsx
+++ b/notebook/PLAN/2021-09-OKR.xlsx
@@ -1297,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>

--- a/notebook/PLAN/2021-09-OKR.xlsx
+++ b/notebook/PLAN/2021-09-OKR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13884"/>
+    <workbookView windowWidth="28060" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="OKR-9月" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>目标</t>
   </si>
@@ -85,7 +85,7 @@
     <t>二分查找题目</t>
   </si>
   <si>
-    <t>2、Java核心进阶</t>
+    <t>课程学习起来感受不好，需要重新安排计划。目前采用的数据结构和Java核心面试题并行的方式，所以这里还是会换成类似于Java面试题的那种计划，目前没有找到比较好的Java面试题资料</t>
   </si>
   <si>
     <t>强引用、软引用、弱引用、幻像引用有什么区别</t>
@@ -141,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -171,7 +171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,7 +185,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,8 +229,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,31 +300,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,69 +313,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,25 +335,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,151 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,32 +634,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,7 +647,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,18 +671,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,166 +691,200 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -908,9 +916,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -919,6 +924,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -934,10 +942,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,6 +980,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -979,54 +1017,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1293,822 +1331,822 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.5740740740741" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.27777777777778" style="4" customWidth="1"/>
-    <col min="3" max="3" width="37.3425925925926" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.4722222222222" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.7222222222222" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="19.5714285714286" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.27678571428571" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.3392857142857" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.4732142857143" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.7232142857143" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="15">
         <v>44440</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A4" s="17"/>
-      <c r="B4" s="13">
+      <c r="A4" s="18"/>
+      <c r="B4" s="15">
         <v>44441</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A5" s="17"/>
-      <c r="B5" s="13">
+      <c r="A5" s="18"/>
+      <c r="B5" s="15">
         <v>44442</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="13">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15">
         <v>44443</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A7" s="17"/>
-      <c r="B7" s="13">
+      <c r="A7" s="18"/>
+      <c r="B7" s="15">
         <v>44444</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="13">
+      <c r="A8" s="18"/>
+      <c r="B8" s="15">
         <v>44445</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A9" s="17"/>
-      <c r="B9" s="13">
+      <c r="A9" s="18"/>
+      <c r="B9" s="15">
         <v>44446</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24">
         <v>44447</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24">
         <v>44448</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A12" s="17"/>
-      <c r="B12" s="13">
+      <c r="A12" s="18"/>
+      <c r="B12" s="15">
         <v>44449</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A13" s="17"/>
-      <c r="B13" s="26">
+      <c r="C12" s="27"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29">
         <v>44450</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A14" s="17"/>
-      <c r="B14" s="26">
+      <c r="D13" s="31"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33">
         <v>44451</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="25"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A15" s="17"/>
-      <c r="B15" s="13">
+      <c r="A15" s="18"/>
+      <c r="B15" s="15">
         <v>44452</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="25"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A16" s="17"/>
-      <c r="B16" s="13">
+      <c r="A16" s="18"/>
+      <c r="B16" s="15">
         <v>44453</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="25"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A17" s="17"/>
-      <c r="B17" s="13">
+      <c r="A17" s="18"/>
+      <c r="B17" s="15">
         <v>44454</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="25"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A18" s="17"/>
-      <c r="B18" s="13">
+      <c r="A18" s="18"/>
+      <c r="B18" s="15">
         <v>44455</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="25"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A19" s="17"/>
-      <c r="B19" s="13">
+      <c r="A19" s="18"/>
+      <c r="B19" s="15">
         <v>44456</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="25"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A20" s="17"/>
-      <c r="B20" s="13">
+      <c r="A20" s="18"/>
+      <c r="B20" s="15">
         <v>44457</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A21" s="17"/>
-      <c r="B21" s="27">
+      <c r="A21" s="18"/>
+      <c r="B21" s="36">
         <v>44458</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A22" s="17"/>
-      <c r="B22" s="27">
+      <c r="A22" s="18"/>
+      <c r="B22" s="36">
         <v>44459</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A23" s="17"/>
-      <c r="B23" s="27">
+      <c r="A23" s="18"/>
+      <c r="B23" s="36">
         <v>44460</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A24" s="17"/>
-      <c r="B24" s="13">
+      <c r="A24" s="18"/>
+      <c r="B24" s="15">
         <v>44461</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="13">
+      <c r="A25" s="18"/>
+      <c r="B25" s="15">
         <v>44462</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="25"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="13">
+      <c r="A26" s="18"/>
+      <c r="B26" s="15">
         <v>44463</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="25"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A27" s="17"/>
-      <c r="B27" s="27">
+      <c r="A27" s="18"/>
+      <c r="B27" s="36">
         <v>44464</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="25"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A28" s="17"/>
-      <c r="B28" s="27">
+      <c r="A28" s="18"/>
+      <c r="B28" s="36">
         <v>44465</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="25"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="13">
+      <c r="A29" s="18"/>
+      <c r="B29" s="15">
         <v>44466</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="25"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="13">
+      <c r="A30" s="18"/>
+      <c r="B30" s="15">
         <v>44467</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="25"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="13">
+      <c r="A31" s="18"/>
+      <c r="B31" s="15">
         <v>44468</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="25"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A32" s="17"/>
-      <c r="B32" s="13">
+      <c r="A32" s="18"/>
+      <c r="B32" s="15">
         <v>44469</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="25"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="25"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="25"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" ht="15.8" hidden="1" customHeight="1" spans="1:6">
-      <c r="A35" s="31"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="25"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="15">
         <v>44440</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="13">
+      <c r="A37" s="18"/>
+      <c r="B37" s="15">
         <v>44441</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="13">
+      <c r="A38" s="18"/>
+      <c r="B38" s="15">
         <v>44442</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="13">
+      <c r="A39" s="18"/>
+      <c r="B39" s="15">
         <v>44443</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="13">
+      <c r="A40" s="18"/>
+      <c r="B40" s="15">
         <v>44444</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A41" s="17"/>
-      <c r="B41" s="13">
+      <c r="A41" s="18"/>
+      <c r="B41" s="15">
         <v>44445</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A42" s="17"/>
-      <c r="B42" s="13">
+      <c r="A42" s="18"/>
+      <c r="B42" s="15">
         <v>44446</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" s="3" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A43" s="17"/>
-      <c r="B43" s="22">
+      <c r="C42" s="21"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" s="5" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A43" s="18"/>
+      <c r="B43" s="24">
         <v>44447</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" s="3" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A44" s="17"/>
-      <c r="B44" s="22">
+      <c r="C43" s="22"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" s="5" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A44" s="18"/>
+      <c r="B44" s="24">
         <v>44448</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A45" s="17"/>
-      <c r="B45" s="13">
+      <c r="A45" s="18"/>
+      <c r="B45" s="15">
         <v>44449</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A46" s="17"/>
-      <c r="B46" s="26">
+      <c r="A46" s="18"/>
+      <c r="B46" s="41">
         <v>44450</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A47" s="17"/>
-      <c r="B47" s="26">
+      <c r="A47" s="18"/>
+      <c r="B47" s="41">
         <v>44451</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A48" s="17"/>
-      <c r="B48" s="13">
+      <c r="A48" s="18"/>
+      <c r="B48" s="15">
         <v>44452</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A49" s="17"/>
-      <c r="B49" s="13">
+      <c r="A49" s="18"/>
+      <c r="B49" s="15">
         <v>44453</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A50" s="17"/>
-      <c r="B50" s="13">
+      <c r="A50" s="18"/>
+      <c r="B50" s="15">
         <v>44454</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
     </row>
     <row r="51" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A51" s="17"/>
-      <c r="B51" s="13">
+      <c r="A51" s="18"/>
+      <c r="B51" s="15">
         <v>44455</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A52" s="17"/>
-      <c r="B52" s="13">
+      <c r="A52" s="18"/>
+      <c r="B52" s="15">
         <v>44456</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A53" s="17"/>
-      <c r="B53" s="13">
+      <c r="A53" s="18"/>
+      <c r="B53" s="15">
         <v>44457</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A54" s="17"/>
-      <c r="B54" s="27">
+      <c r="A54" s="18"/>
+      <c r="B54" s="36">
         <v>44458</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
     </row>
     <row r="55" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A55" s="17"/>
-      <c r="B55" s="27">
+      <c r="A55" s="18"/>
+      <c r="B55" s="36">
         <v>44459</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A56" s="17"/>
-      <c r="B56" s="27">
+      <c r="A56" s="18"/>
+      <c r="B56" s="36">
         <v>44460</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A57" s="17"/>
-      <c r="B57" s="13">
+      <c r="A57" s="18"/>
+      <c r="B57" s="15">
         <v>44461</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A58" s="17"/>
-      <c r="B58" s="13">
+      <c r="A58" s="18"/>
+      <c r="B58" s="15">
         <v>44462</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
     </row>
     <row r="59" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A59" s="17"/>
-      <c r="B59" s="13">
+      <c r="A59" s="18"/>
+      <c r="B59" s="15">
         <v>44463</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
     </row>
     <row r="60" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A60" s="17"/>
-      <c r="B60" s="27">
+      <c r="A60" s="18"/>
+      <c r="B60" s="36">
         <v>44464</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
     </row>
     <row r="61" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A61" s="17"/>
-      <c r="B61" s="27">
+      <c r="A61" s="18"/>
+      <c r="B61" s="36">
         <v>44465</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
     </row>
     <row r="62" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A62" s="17"/>
-      <c r="B62" s="13">
+      <c r="A62" s="18"/>
+      <c r="B62" s="15">
         <v>44466</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
     </row>
     <row r="63" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A63" s="17"/>
-      <c r="B63" s="13">
+      <c r="A63" s="18"/>
+      <c r="B63" s="15">
         <v>44467</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A64" s="17"/>
-      <c r="B64" s="13">
+      <c r="A64" s="18"/>
+      <c r="B64" s="15">
         <v>44468</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A65" s="17"/>
-      <c r="B65" s="13">
+      <c r="A65" s="18"/>
+      <c r="B65" s="15">
         <v>44469</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A66" s="17"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
     </row>
     <row r="67" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A67" s="17"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="32"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="32"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="32"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="32"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="32"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="33"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="37"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/notebook/PLAN/2021-09-OKR.xlsx
+++ b/notebook/PLAN/2021-09-OKR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13920"/>
+    <workbookView windowWidth="28060" windowHeight="12140"/>
   </bookViews>
   <sheets>
     <sheet name="OKR-9月" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,10 @@
     <t>如何实现一个链表；链表反转；</t>
   </si>
   <si>
-    <t>栈的实现；栈实现浏览器前进后退；栈实现判断括号是否完整</t>
+    <t>整理栈课程的笔记</t>
+  </si>
+  <si>
+    <t>栈的实现；栈实现浏览器前进后退；栈实现判断括号是否完整；链表反转</t>
   </si>
   <si>
     <t>队列(queue)；</t>
@@ -61,52 +64,49 @@
     <t>排序（上）</t>
   </si>
   <si>
+    <t>排序题目</t>
+  </si>
+  <si>
+    <t>排序（中）</t>
+  </si>
+  <si>
+    <t>排序（下）</t>
+  </si>
+  <si>
+    <t>线性排序</t>
+  </si>
+  <si>
+    <t>线性排序题目</t>
+  </si>
+  <si>
+    <t>二分查找(上)</t>
+  </si>
+  <si>
+    <t>课程学习起来感受不好，需要重新安排计划。目前采用的数据结构和Java核心面试题并行的方式，所以这里还是会换成类似于Java面试题的那种计划，目前没有找到比较好的Java面试题资料</t>
+  </si>
+  <si>
+    <t>强引用、软引用、弱引用、幻像引用有什么区别</t>
+  </si>
+  <si>
+    <t>String,StringBuffer,StringBuilder的区别</t>
+  </si>
+  <si>
+    <t>动态代理基于什么原理</t>
+  </si>
+  <si>
+    <t>int和integer有什么区别</t>
+  </si>
+  <si>
+    <t>对比Vector、ArrayList、LinkedList有什么区别</t>
+  </si>
+  <si>
+    <t>对别HashTable、HashMap、TreeMap有什么不同</t>
+  </si>
+  <si>
+    <t>如何保证集合是线程安全的，ConcurrentHashMap如何实现高效的线程安全</t>
+  </si>
+  <si>
     <t>回家</t>
-  </si>
-  <si>
-    <t>排序题目</t>
-  </si>
-  <si>
-    <t>排序（中）</t>
-  </si>
-  <si>
-    <t>排序（下）</t>
-  </si>
-  <si>
-    <t>线性排序</t>
-  </si>
-  <si>
-    <t>线性排序题目</t>
-  </si>
-  <si>
-    <t>二分查找(上)</t>
-  </si>
-  <si>
-    <t>二分查找题目</t>
-  </si>
-  <si>
-    <t>课程学习起来感受不好，需要重新安排计划。目前采用的数据结构和Java核心面试题并行的方式，所以这里还是会换成类似于Java面试题的那种计划，目前没有找到比较好的Java面试题资料</t>
-  </si>
-  <si>
-    <t>强引用、软引用、弱引用、幻像引用有什么区别</t>
-  </si>
-  <si>
-    <t>String,StringBuffer,StringBuilder的区别</t>
-  </si>
-  <si>
-    <t>动态代理基于什么原理</t>
-  </si>
-  <si>
-    <t>int和integer有什么区别</t>
-  </si>
-  <si>
-    <t>对比Vector、ArrayList、LinkedList有什么区别</t>
-  </si>
-  <si>
-    <t>对别HashTable、HashMap、TreeMap有什么不同</t>
-  </si>
-  <si>
-    <t>如何保证集合是线程安全的，ConcurrentHashMap如何实现高效的线程安全</t>
   </si>
   <si>
     <t>Java提供了哪些IO方式？NIO如何实现多路复用？</t>
@@ -879,12 +879,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -933,19 +934,19 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,16 +958,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,18 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1335,818 +1342,822 @@
   <sheetPr/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:C56"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.5714285714286" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.27678571428571" style="6" customWidth="1"/>
-    <col min="3" max="3" width="37.3392857142857" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.4732142857143" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.7232142857143" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="19.5714285714286" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.27678571428571" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.3392857142857" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.4732142857143" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.7232142857143" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>44440</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A4" s="18"/>
-      <c r="B4" s="15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="16">
         <v>44441</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16">
         <v>44442</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A6" s="18"/>
-      <c r="B6" s="15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="16">
         <v>44443</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16">
         <v>44444</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A8" s="18"/>
-      <c r="B8" s="15">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16">
         <v>44445</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="16">
         <v>44446</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25">
         <v>44447</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25">
         <v>44448</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A12" s="18"/>
-      <c r="B12" s="15">
+      <c r="A12" s="19"/>
+      <c r="B12" s="16">
         <v>44449</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="27"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30">
         <v>44450</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="30"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33">
+      <c r="A14" s="33"/>
+      <c r="B14" s="30">
         <v>44451</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="35"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-    </row>
-    <row r="15" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A15" s="18"/>
-      <c r="B15" s="15">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37">
         <v>44452</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="27"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A16" s="18"/>
-      <c r="B16" s="15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="16">
         <v>44453</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="27"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A17" s="18"/>
-      <c r="B17" s="15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="16">
         <v>44454</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="27"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A18" s="18"/>
-      <c r="B18" s="15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="16">
         <v>44455</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="27"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15">
+      <c r="A19" s="19"/>
+      <c r="B19" s="16">
         <v>44456</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="27"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A20" s="18"/>
-      <c r="B20" s="15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="16">
         <v>44457</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="27"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A21" s="18"/>
-      <c r="B21" s="36">
+      <c r="A21" s="19"/>
+      <c r="B21" s="39">
         <v>44458</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="44"/>
     </row>
     <row r="22" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A22" s="18"/>
-      <c r="B22" s="36">
+      <c r="A22" s="19"/>
+      <c r="B22" s="39">
         <v>44459</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="C22" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A23" s="18"/>
-      <c r="B23" s="36">
+      <c r="A23" s="19"/>
+      <c r="B23" s="39">
         <v>44460</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="C23" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A24" s="18"/>
-      <c r="B24" s="15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="16">
         <v>44461</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A25" s="19"/>
+      <c r="B25" s="16">
+        <v>44462</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A25" s="18"/>
-      <c r="B25" s="15">
-        <v>44462</v>
-      </c>
-      <c r="C25" s="27" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A26" s="19"/>
+      <c r="B26" s="16">
+        <v>44463</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="27"/>
-    </row>
-    <row r="26" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A26" s="18"/>
-      <c r="B26" s="15">
-        <v>44463</v>
-      </c>
-      <c r="C26" s="27" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A27" s="19"/>
+      <c r="B27" s="39">
+        <v>44464</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="27"/>
-    </row>
-    <row r="27" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A27" s="18"/>
-      <c r="B27" s="36">
-        <v>44464</v>
-      </c>
-      <c r="C27" s="27" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A28" s="19"/>
+      <c r="B28" s="39">
+        <v>44465</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="27"/>
-    </row>
-    <row r="28" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A28" s="18"/>
-      <c r="B28" s="36">
-        <v>44465</v>
-      </c>
-      <c r="C28" s="27" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A29" s="19"/>
+      <c r="B29" s="16">
+        <v>44466</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="29" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A29" s="18"/>
-      <c r="B29" s="15">
-        <v>44466</v>
-      </c>
-      <c r="C29" s="27" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A30" s="19"/>
+      <c r="B30" s="16">
+        <v>44467</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="27"/>
-    </row>
-    <row r="30" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A30" s="18"/>
-      <c r="B30" s="15">
-        <v>44467</v>
-      </c>
-      <c r="C30" s="27" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A31" s="19"/>
+      <c r="B31" s="16">
+        <v>44468</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="27"/>
-    </row>
-    <row r="31" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A31" s="18"/>
-      <c r="B31" s="15">
-        <v>44468</v>
-      </c>
-      <c r="C31" s="27" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A32" s="19"/>
+      <c r="B32" s="16">
+        <v>44469</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="27"/>
-    </row>
-    <row r="32" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15">
-        <v>44469</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="27"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A33" s="18"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="27"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A34" s="18"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="27"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" ht="15.8" hidden="1" customHeight="1" spans="1:6">
       <c r="A35" s="40"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="27"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="16">
+        <v>44440</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A37" s="19"/>
+      <c r="B37" s="16">
+        <v>44441</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A38" s="19"/>
+      <c r="B38" s="16">
+        <v>44442</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A39" s="19"/>
+      <c r="B39" s="16">
+        <v>44443</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A40" s="19"/>
+      <c r="B40" s="16">
+        <v>44444</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A41" s="19"/>
+      <c r="B41" s="16">
+        <v>44445</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A42" s="19"/>
+      <c r="B42" s="16">
+        <v>44446</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" s="6" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A43" s="19"/>
+      <c r="B43" s="25">
+        <v>44447</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" s="6" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A44" s="19"/>
+      <c r="B44" s="25">
+        <v>44448</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+    </row>
+    <row r="45" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A45" s="19"/>
+      <c r="B45" s="16">
+        <v>44449</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+    </row>
+    <row r="46" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A46" s="19"/>
+      <c r="B46" s="30">
+        <v>44450</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A47" s="19"/>
+      <c r="B47" s="30">
+        <v>44451</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="15">
-        <v>44440</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A37" s="18"/>
-      <c r="B37" s="15">
-        <v>44441</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A38" s="18"/>
-      <c r="B38" s="15">
-        <v>44442</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A39" s="18"/>
-      <c r="B39" s="15">
-        <v>44443</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A40" s="18"/>
-      <c r="B40" s="15">
-        <v>44444</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A41" s="18"/>
-      <c r="B41" s="15">
-        <v>44445</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A42" s="18"/>
-      <c r="B42" s="15">
-        <v>44446</v>
-      </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" s="5" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A43" s="18"/>
-      <c r="B43" s="24">
-        <v>44447</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" s="5" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A44" s="18"/>
-      <c r="B44" s="24">
-        <v>44448</v>
-      </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A45" s="18"/>
-      <c r="B45" s="15">
-        <v>44449</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A46" s="18"/>
-      <c r="B46" s="41">
-        <v>44450</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A47" s="18"/>
-      <c r="B47" s="41">
-        <v>44451</v>
-      </c>
-      <c r="C47" s="22" t="s">
+      <c r="D47" s="21"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+    </row>
+    <row r="48" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A48" s="19"/>
+      <c r="B48" s="16">
+        <v>44452</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A48" s="18"/>
-      <c r="B48" s="15">
-        <v>44452</v>
-      </c>
-      <c r="C48" s="22" t="s">
+      <c r="D48" s="21"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+    </row>
+    <row r="49" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A49" s="19"/>
+      <c r="B49" s="16">
+        <v>44453</v>
+      </c>
+      <c r="C49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A49" s="18"/>
-      <c r="B49" s="15">
-        <v>44453</v>
-      </c>
-      <c r="C49" s="22" t="s">
+      <c r="D49" s="21"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+    </row>
+    <row r="50" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A50" s="19"/>
+      <c r="B50" s="16">
+        <v>44454</v>
+      </c>
+      <c r="C50" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A50" s="18"/>
-      <c r="B50" s="15">
-        <v>44454</v>
-      </c>
-      <c r="C50" s="22" t="s">
+      <c r="D50" s="21"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+    </row>
+    <row r="51" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A51" s="19"/>
+      <c r="B51" s="16">
+        <v>44455</v>
+      </c>
+      <c r="C51" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A51" s="18"/>
-      <c r="B51" s="15">
-        <v>44455</v>
-      </c>
-      <c r="C51" s="22" t="s">
+      <c r="D51" s="21"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+    </row>
+    <row r="52" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A52" s="19"/>
+      <c r="B52" s="16">
+        <v>44456</v>
+      </c>
+      <c r="C52" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A52" s="18"/>
-      <c r="B52" s="15">
-        <v>44456</v>
-      </c>
-      <c r="C52" s="22" t="s">
+      <c r="D52" s="21"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+    </row>
+    <row r="53" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A53" s="19"/>
+      <c r="B53" s="16">
+        <v>44457</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A53" s="18"/>
-      <c r="B53" s="15">
-        <v>44457</v>
-      </c>
-      <c r="C53" s="22" t="s">
+      <c r="D53" s="21"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A54" s="19"/>
+      <c r="B54" s="39">
+        <v>44458</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A54" s="18"/>
-      <c r="B54" s="36">
-        <v>44458</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
     </row>
     <row r="55" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A55" s="18"/>
-      <c r="B55" s="36">
+      <c r="A55" s="19"/>
+      <c r="B55" s="39">
         <v>44459</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
     </row>
     <row r="56" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A56" s="18"/>
-      <c r="B56" s="36">
+      <c r="A56" s="19"/>
+      <c r="B56" s="39">
         <v>44460</v>
       </c>
       <c r="C56" s="40"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
     </row>
     <row r="57" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A57" s="18"/>
-      <c r="B57" s="15">
+      <c r="A57" s="19"/>
+      <c r="B57" s="16">
         <v>44461</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
     </row>
     <row r="58" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A58" s="18"/>
-      <c r="B58" s="15">
+      <c r="A58" s="19"/>
+      <c r="B58" s="16">
         <v>44462</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
     </row>
     <row r="59" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A59" s="18"/>
-      <c r="B59" s="15">
+      <c r="A59" s="19"/>
+      <c r="B59" s="16">
         <v>44463</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
     </row>
     <row r="60" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A60" s="18"/>
-      <c r="B60" s="36">
+      <c r="A60" s="19"/>
+      <c r="B60" s="39">
         <v>44464</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
     </row>
     <row r="61" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A61" s="18"/>
-      <c r="B61" s="36">
+      <c r="A61" s="19"/>
+      <c r="B61" s="39">
         <v>44465</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
     </row>
     <row r="62" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A62" s="18"/>
-      <c r="B62" s="15">
+      <c r="A62" s="19"/>
+      <c r="B62" s="16">
         <v>44466</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
     </row>
     <row r="63" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A63" s="18"/>
-      <c r="B63" s="15">
+      <c r="A63" s="19"/>
+      <c r="B63" s="16">
         <v>44467</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
     </row>
     <row r="64" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A64" s="18"/>
-      <c r="B64" s="15">
+      <c r="A64" s="19"/>
+      <c r="B64" s="16">
         <v>44468</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
     </row>
     <row r="65" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A65" s="18"/>
-      <c r="B65" s="15">
+      <c r="A65" s="19"/>
+      <c r="B65" s="16">
         <v>44469</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
     </row>
     <row r="66" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A66" s="18"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
     </row>
     <row r="67" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A67" s="18"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="44"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="44"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="44"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="44"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="44"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="45"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
+      <c r="A73" s="48"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="49"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2155,11 +2166,11 @@
     <mergeCell ref="A36:A65"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C21:C23"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F21:F23"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/notebook/PLAN/2021-09-OKR.xlsx
+++ b/notebook/PLAN/2021-09-OKR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12140"/>
+    <workbookView windowWidth="30048" windowHeight="13884"/>
   </bookViews>
   <sheets>
     <sheet name="OKR-9月" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>目标</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>栈的实现；栈实现浏览器前进后退；栈实现判断括号是否完整；链表反转</t>
+  </si>
+  <si>
+    <t>栈笔记；</t>
   </si>
   <si>
     <t>队列(queue)；</t>
@@ -141,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -171,13 +174,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -191,11 +187,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,8 +224,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,23 +264,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,15 +287,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,30 +311,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,163 +356,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,78 +637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -731,155 +662,227 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -917,6 +920,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -925,9 +931,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,6 +958,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -964,6 +970,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,18 +985,6 @@
     <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -995,6 +992,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,54 +1024,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1338,22 +1338,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.5714285714286" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.27678571428571" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.3392857142857" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.4732142857143" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.5740740740741" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.27777777777778" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.3425925925926" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.4722222222222" style="8" customWidth="1"/>
     <col min="5" max="5" width="20" style="6" customWidth="1"/>
-    <col min="6" max="6" width="25.7232142857143" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.7222222222222" style="6" customWidth="1"/>
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1394,68 +1394,68 @@
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="16">
         <v>44441</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="16">
         <v>44442</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="16">
         <v>44443</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="16">
         <v>44444</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="16">
         <v>44445</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="16">
         <v>44446</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
       <c r="A10" s="24"/>
@@ -1478,13 +1478,13 @@
       <c r="F11" s="28"/>
     </row>
     <row r="12" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="16">
         <v>44449</v>
       </c>
       <c r="C12" s="26"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="26"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
@@ -1496,668 +1496,670 @@
         <v>7</v>
       </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="41"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="31"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="30">
         <v>44451</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39">
         <v>44452</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
     <row r="16" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="16">
         <v>44453</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="F16" s="26"/>
     </row>
     <row r="17" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="16">
         <v>44454</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="26"/>
     </row>
     <row r="18" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="16">
         <v>44455</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="26"/>
     </row>
     <row r="19" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="16">
         <v>44456</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="26"/>
     </row>
     <row r="20" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="16">
         <v>44457</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="26"/>
     </row>
     <row r="21" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A21" s="19"/>
-      <c r="B21" s="39">
+      <c r="A21" s="20"/>
+      <c r="B21" s="41">
         <v>44458</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="22"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="44"/>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A22" s="19"/>
-      <c r="B22" s="39">
+      <c r="A22" s="20"/>
+      <c r="B22" s="41">
         <v>44459</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="D22" s="22"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="45"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A23" s="19"/>
-      <c r="B23" s="39">
+      <c r="A23" s="20"/>
+      <c r="B23" s="41">
         <v>44460</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="D23" s="22"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="46"/>
+      <c r="F23" s="44"/>
     </row>
     <row r="24" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="16">
         <v>44461</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="D24" s="22"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
     </row>
     <row r="25" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="16">
         <v>44462</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="26"/>
     </row>
     <row r="26" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="16">
         <v>44463</v>
       </c>
       <c r="C26" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" ht="15.8" customHeight="1" spans="1:6">
+      <c r="A27" s="20"/>
+      <c r="B27" s="41">
+        <v>44464</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="26"/>
-    </row>
-    <row r="27" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A27" s="19"/>
-      <c r="B27" s="39">
-        <v>44464</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="26"/>
     </row>
     <row r="28" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A28" s="19"/>
-      <c r="B28" s="39">
+      <c r="A28" s="20"/>
+      <c r="B28" s="41">
         <v>44465</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="26"/>
     </row>
     <row r="29" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="16">
         <v>44466</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="26"/>
     </row>
     <row r="30" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="16">
         <v>44467</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="26"/>
     </row>
     <row r="31" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A31" s="19"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="16">
         <v>44468</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="23"/>
+        <v>21</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="26"/>
     </row>
     <row r="32" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="16">
         <v>44469</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="26"/>
     </row>
     <row r="33" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A33" s="19"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="16"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="23"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A34" s="19"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="16"/>
       <c r="C34" s="26"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="23"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" ht="15.8" hidden="1" customHeight="1" spans="1:6">
-      <c r="A35" s="40"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="16"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="23"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="26"/>
     </row>
     <row r="36" ht="15.8" customHeight="1" spans="1:6">
       <c r="A36" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36" s="16">
         <v>44440</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A37" s="19"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="16">
         <v>44441</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A38" s="19"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="16">
         <v>44442</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A39" s="19"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="16">
         <v>44443</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A40" s="19"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="16">
         <v>44444</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A41" s="19"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="16">
         <v>44445</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="16">
         <v>44446</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" s="6" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="25">
         <v>44447</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" s="6" customFormat="1" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A44" s="19"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="25">
         <v>44448</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A45" s="19"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="16">
         <v>44449</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A46" s="19"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="30">
         <v>44450</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A47" s="19"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="30">
         <v>44451</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
+      <c r="C47" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A48" s="19"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="16">
         <v>44452</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="C48" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A49" s="19"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="16">
         <v>44453</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
+      <c r="C49" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="16">
         <v>44454</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
+      <c r="C50" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
     </row>
     <row r="51" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A51" s="19"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="16">
         <v>44455</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
+      <c r="C51" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
     </row>
     <row r="52" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A52" s="19"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="16">
         <v>44456</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
+      <c r="C52" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
     </row>
     <row r="53" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="16">
         <v>44457</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
+      <c r="C53" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
     </row>
     <row r="54" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A54" s="19"/>
-      <c r="B54" s="39">
+      <c r="A54" s="20"/>
+      <c r="B54" s="41">
         <v>44458</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
+        <v>31</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
     </row>
     <row r="55" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A55" s="19"/>
-      <c r="B55" s="39">
+      <c r="A55" s="20"/>
+      <c r="B55" s="41">
         <v>44459</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
     </row>
     <row r="56" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A56" s="19"/>
-      <c r="B56" s="39">
+      <c r="A56" s="20"/>
+      <c r="B56" s="41">
         <v>44460</v>
       </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
     </row>
     <row r="57" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A57" s="19"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="16">
         <v>44461</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
+      <c r="C57" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
     </row>
     <row r="58" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A58" s="19"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="16">
         <v>44462</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
+      <c r="C58" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
     </row>
     <row r="59" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A59" s="19"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="16">
         <v>44463</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
+      <c r="C59" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
     </row>
     <row r="60" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A60" s="19"/>
-      <c r="B60" s="39">
+      <c r="A60" s="20"/>
+      <c r="B60" s="41">
         <v>44464</v>
       </c>
-      <c r="C60" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
+      <c r="C60" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
     </row>
     <row r="61" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A61" s="19"/>
-      <c r="B61" s="39">
+      <c r="A61" s="20"/>
+      <c r="B61" s="41">
         <v>44465</v>
       </c>
-      <c r="C61" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
+      <c r="C61" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
     </row>
     <row r="62" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A62" s="19"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="16">
         <v>44466</v>
       </c>
-      <c r="C62" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
+      <c r="C62" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
     </row>
     <row r="63" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A63" s="19"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="16">
         <v>44467</v>
       </c>
-      <c r="C63" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
+      <c r="C63" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="22"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
     </row>
     <row r="64" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A64" s="19"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="16">
         <v>44468</v>
       </c>
-      <c r="C64" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
+      <c r="C64" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
     </row>
     <row r="65" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A65" s="19"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="16">
         <v>44469</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
+      <c r="C65" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
     </row>
     <row r="66" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A66" s="19"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="16"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
     </row>
     <row r="67" ht="15.8" customHeight="1" spans="1:6">
-      <c r="A67" s="19"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="16"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="47"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="16"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="47"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="16"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="47"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="16"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="47"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="16"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="47"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="16"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="48"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="52"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="10">
